--- a/acertividad.xlsx
+++ b/acertividad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="88">
   <si>
     <t>NombreCampo</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>UltimaSobConsumo</t>
+  </si>
+  <si>
+    <t>UltimoAlimentoAcumuladoKg</t>
   </si>
   <si>
     <t>DensidadFinal_Im2_Proyeccion</t>
@@ -636,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ55"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,16 +832,19 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>12.45</v>
@@ -850,7 +856,7 @@
         <v>45449</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -880,7 +886,7 @@
         <v>1.41</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R2">
         <v>0.97</v>
@@ -919,7 +925,7 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE2">
         <v>3841.609638554217</v>
@@ -949,7 +955,7 @@
         <v>3.3565</v>
       </c>
       <c r="AN2">
-        <v>22775</v>
+        <v>27575</v>
       </c>
       <c r="AO2">
         <v>95.20895522388059</v>
@@ -979,37 +985,37 @@
         <v>0.5057199999999999</v>
       </c>
       <c r="AX2">
+        <v>22775</v>
+      </c>
+      <c r="AY2">
         <v>14.28134328358209</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.5175438596491229</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.7696387139542591</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.2368711995577668</v>
       </c>
-      <c r="BB2">
-        <v>0.9189536148810123</v>
-      </c>
       <c r="BC2">
+        <v>0.8873701018509806</v>
+      </c>
+      <c r="BD2">
         <v>0.2368711995577667</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>0.4566929133858267</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -1017,16 +1023,19 @@
       <c r="BJ2">
         <v>0</v>
       </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>11.7</v>
@@ -1038,7 +1047,7 @@
         <v>45448</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -1068,7 +1077,7 @@
         <v>1.39</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R3">
         <v>0.97</v>
@@ -1107,7 +1116,7 @@
         <v>0.3</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE3">
         <v>3951.075213675214</v>
@@ -1137,7 +1146,7 @@
         <v>3.2605</v>
       </c>
       <c r="AN3">
-        <v>21850</v>
+        <v>26925</v>
       </c>
       <c r="AO3">
         <v>98.33333333333333</v>
@@ -1167,54 +1176,57 @@
         <v>0.7176</v>
       </c>
       <c r="AX3">
+        <v>21850</v>
+      </c>
+      <c r="AY3">
         <v>14.75</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.575</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.8648194962216627</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0.3611111111111112</v>
       </c>
-      <c r="BB3">
-        <v>0.8665451405158018</v>
-      </c>
       <c r="BC3">
+        <v>0.9321863657488347</v>
+      </c>
+      <c r="BD3">
         <v>0.3611111111111112</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>0.532258064516129</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
         <v>0.1493476678976059</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>10.83</v>
@@ -1226,7 +1238,7 @@
         <v>45447</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -1256,7 +1268,7 @@
         <v>1.44</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R4">
         <v>0.97</v>
@@ -1295,7 +1307,7 @@
         <v>0.32</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE4">
         <v>4463.469067405355</v>
@@ -1325,7 +1337,7 @@
         <v>3.373</v>
       </c>
       <c r="AN4">
-        <v>46025</v>
+        <v>48125</v>
       </c>
       <c r="AO4">
         <v>95.61538461538461</v>
@@ -1355,54 +1367,57 @@
         <v>0.351266</v>
       </c>
       <c r="AX4">
+        <v>46025</v>
+      </c>
+      <c r="AY4">
         <v>13.38615384615385</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.5697674418604651</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.7714932126696834</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.5289940828402367</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>0</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>0.5289940828402366</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>1</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>0.8514851485148515</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
         <v>0.2136337281528115</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>9.640000000000001</v>
@@ -1414,7 +1429,7 @@
         <v>45446</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -1444,7 +1459,7 @@
         <v>1.41</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R5">
         <v>0.97</v>
@@ -1483,7 +1498,7 @@
         <v>0.28</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE5">
         <v>4339.408713692946</v>
@@ -1513,7 +1528,7 @@
         <v>3.235</v>
       </c>
       <c r="AN5">
-        <v>39425</v>
+        <v>48125</v>
       </c>
       <c r="AO5">
         <v>96.875</v>
@@ -1543,54 +1558,57 @@
         <v>0.825558</v>
       </c>
       <c r="AX5">
+        <v>39425</v>
+      </c>
+      <c r="AY5">
         <v>15.5</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.8962962962962964</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.9555938037865749</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.3580508474576272</v>
       </c>
-      <c r="BB5">
-        <v>0.464135525677087</v>
-      </c>
       <c r="BC5">
+        <v>0.1252129910769769</v>
+      </c>
+      <c r="BD5">
         <v>0.3580508474576271</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>0.8076923076923077</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0.2970128811470945</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>13.6</v>
@@ -1602,7 +1620,7 @@
         <v>45445</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1632,7 +1650,7 @@
         <v>1.47</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6">
         <v>0.97</v>
@@ -1671,7 +1689,7 @@
         <v>0.34</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE6">
         <v>4215.172058823529</v>
@@ -1701,7 +1719,7 @@
         <v>3.3025</v>
       </c>
       <c r="AN6">
-        <v>51725</v>
+        <v>61900</v>
       </c>
       <c r="AO6">
         <v>95.00935633802817</v>
@@ -1731,54 +1749,57 @@
         <v>0.7528899999999999</v>
       </c>
       <c r="AX6">
+        <v>51725</v>
+      </c>
+      <c r="AY6">
         <v>14.25140345070423</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.8823529411764705</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.977344113541182</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>0.1728969934994583</v>
       </c>
-      <c r="BB6">
-        <v>0.3318994876180404</v>
-      </c>
       <c r="BC6">
+        <v>0.003761784119027611</v>
+      </c>
+      <c r="BD6">
         <v>0.1728969934994582</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>0.7804878048780488</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>0.2145780361809009</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>12.8</v>
@@ -1790,7 +1811,7 @@
         <v>45443</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1820,7 +1841,7 @@
         <v>1.43</v>
       </c>
       <c r="Q7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7">
         <v>0.97</v>
@@ -1859,7 +1880,7 @@
         <v>0.36</v>
       </c>
       <c r="AD7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE7">
         <v>3769.53125</v>
@@ -1889,7 +1910,7 @@
         <v>3.271</v>
       </c>
       <c r="AN7">
-        <v>9425</v>
+        <v>13925</v>
       </c>
       <c r="AO7">
         <v>95.45021379310344</v>
@@ -1919,54 +1940,57 @@
         <v>0.729213</v>
       </c>
       <c r="AX7">
+        <v>9425</v>
+      </c>
+      <c r="AY7">
         <v>8.59051924137931</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.6875</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.9581168831168831</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>0.8901137931034483</v>
       </c>
-      <c r="BB7">
-        <v>0.5371763439341244</v>
-      </c>
       <c r="BC7">
+        <v>0.7936531129212395</v>
+      </c>
+      <c r="BD7">
         <v>0.8901137931034484</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>0.7551020408163265</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>0.1111529766390352</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>0</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>0.8507978518494337</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>13.4</v>
@@ -1978,7 +2002,7 @@
         <v>45442</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>13</v>
@@ -2008,7 +2032,7 @@
         <v>1.46</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8">
         <v>0.97</v>
@@ -2047,7 +2071,7 @@
         <v>0.36</v>
       </c>
       <c r="AD8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE8">
         <v>4483.383582089552</v>
@@ -2077,7 +2101,7 @@
         <v>3.304</v>
       </c>
       <c r="AN8">
-        <v>17150</v>
+        <v>22050</v>
       </c>
       <c r="AO8">
         <v>94.46025161290324</v>
@@ -2107,54 +2131,57 @@
         <v>0.64708</v>
       </c>
       <c r="AX8">
+        <v>17150</v>
+      </c>
+      <c r="AY8">
         <v>12.27983270967742</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.5656565656565657</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.9863445378151261</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>0.5687840664711631</v>
       </c>
-      <c r="BB8">
-        <v>0.6343679923374561</v>
-      </c>
       <c r="BC8">
+        <v>0.8156159901481579</v>
+      </c>
+      <c r="BD8">
         <v>0.5687840664711632</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>0.5961538461538461</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
       </c>
       <c r="BI8">
         <v>0</v>
       </c>
       <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0.5462940898704687</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:63">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>6.4</v>
@@ -2166,7 +2193,7 @@
         <v>45441</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>12</v>
@@ -2196,7 +2223,7 @@
         <v>1.43</v>
       </c>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9">
         <v>0.97</v>
@@ -2235,7 +2262,7 @@
         <v>0.34</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE9">
         <v>4819.7359375</v>
@@ -2265,7 +2292,7 @@
         <v>3.3145</v>
       </c>
       <c r="AN9">
-        <v>7085</v>
+        <v>8835</v>
       </c>
       <c r="AO9">
         <v>96.61198852459017</v>
@@ -2295,54 +2322,57 @@
         <v>0.510724</v>
       </c>
       <c r="AX9">
+        <v>7085</v>
+      </c>
+      <c r="AY9">
         <v>11.59343862295082</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.6399999999999999</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.8638985005767013</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>0.8498572794691646</v>
       </c>
-      <c r="BB9">
-        <v>0.6737483073084163</v>
-      </c>
       <c r="BC9">
+        <v>0.8401646146887591</v>
+      </c>
+      <c r="BD9">
         <v>0.8498572794691646</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>0.6781609195402298</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
         <v>0.696869402093959</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:63">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>11.54</v>
@@ -2354,7 +2384,7 @@
         <v>45441</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -2384,7 +2414,7 @@
         <v>1.43</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R10">
         <v>0.97</v>
@@ -2423,7 +2453,7 @@
         <v>0.35</v>
       </c>
       <c r="AD10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE10">
         <v>3651.844020797227</v>
@@ -2453,7 +2483,7 @@
         <v>3.196</v>
       </c>
       <c r="AN10">
-        <v>13800</v>
+        <v>18700</v>
       </c>
       <c r="AO10">
         <v>91.4301</v>
@@ -2483,54 +2513,57 @@
         <v>0.74932</v>
       </c>
       <c r="AX10">
+        <v>13800</v>
+      </c>
+      <c r="AY10">
         <v>12.800214</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>0.5123966942148761</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>0.9426605504587156</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>0.3068500000000001</v>
       </c>
-      <c r="BB10">
-        <v>0.5953863131476043</v>
-      </c>
       <c r="BC10">
+        <v>0.8067915982507392</v>
+      </c>
+      <c r="BD10">
         <v>0.3068500000000001</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>1</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>0.5555555555555556</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
         <v>0.4208203266411231</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:63">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>2.5</v>
@@ -2542,7 +2575,7 @@
         <v>45429</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2572,7 +2605,7 @@
         <v>1.42</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R11">
         <v>0.97</v>
@@ -2611,7 +2644,7 @@
         <v>0.29</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE11">
         <v>4854.483999999999</v>
@@ -2641,7 +2674,7 @@
         <v>3.02</v>
       </c>
       <c r="AN11">
-        <v>4525</v>
+        <v>6325</v>
       </c>
       <c r="AO11">
         <v>93.36117692307693</v>
@@ -2671,54 +2704,57 @@
         <v>1.454876</v>
       </c>
       <c r="AX11">
+        <v>4525</v>
+      </c>
+      <c r="AY11">
         <v>9.336117692307692</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.5436893203883495</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.8761881117889062</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>0.8565245589273112</v>
       </c>
-      <c r="BB11">
-        <v>0.7963817787849017</v>
-      </c>
       <c r="BC11">
+        <v>0.886825469433259</v>
+      </c>
+      <c r="BD11">
         <v>0.8565245589273112</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>0.7029702970297029</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
         <v>0.7666677888694096</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:63">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>4.4</v>
@@ -2730,7 +2766,7 @@
         <v>45429</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2760,7 +2796,7 @@
         <v>1.39</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R12">
         <v>0.97</v>
@@ -2799,7 +2835,7 @@
         <v>0.26</v>
       </c>
       <c r="AD12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE12">
         <v>4397.68409090909</v>
@@ -2829,7 +2865,7 @@
         <v>2.932</v>
       </c>
       <c r="AN12">
-        <v>8025</v>
+        <v>10725</v>
       </c>
       <c r="AO12">
         <v>94.43287692307692</v>
@@ -2859,54 +2895,57 @@
         <v>1.286832</v>
       </c>
       <c r="AX12">
+        <v>8025</v>
+      </c>
+      <c r="AY12">
         <v>9.443287692307692</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>0.663716814159292</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>0.9093701996927803</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>0.8825502516175413</v>
       </c>
-      <c r="BB12">
-        <v>0.8074450518801306</v>
-      </c>
       <c r="BC12">
+        <v>0.9208911923471153</v>
+      </c>
+      <c r="BD12">
         <v>0.8825502516175413</v>
       </c>
-      <c r="BD12">
+      <c r="BE12">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>0.7927927927927928</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
         <v>0.8113910024565205</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:63">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>7.42</v>
@@ -2918,7 +2957,7 @@
         <v>45428</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2948,7 +2987,7 @@
         <v>1.38</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R13">
         <v>0.97</v>
@@ -2987,7 +3026,7 @@
         <v>0.22</v>
       </c>
       <c r="AD13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE13">
         <v>4009.049865229111</v>
@@ -3017,7 +3056,7 @@
         <v>3.124</v>
       </c>
       <c r="AN13">
-        <v>24300</v>
+        <v>27100</v>
       </c>
       <c r="AO13">
         <v>95.08775263157895</v>
@@ -3047,54 +3086,57 @@
         <v>0.558061</v>
       </c>
       <c r="AX13">
+        <v>24300</v>
+      </c>
+      <c r="AY13">
         <v>14.26316289473684</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>0.9888682745825602</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>0.5592764752791068</v>
       </c>
-      <c r="BB13">
-        <v>0.8985734465798086</v>
-      </c>
       <c r="BC13">
+        <v>0.997887226242271</v>
+      </c>
+      <c r="BD13">
         <v>0.5592764752791068</v>
       </c>
-      <c r="BD13">
+      <c r="BE13">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE13">
+      <c r="BF13">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <v>0.6098901098901099</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
         <v>0.5374633133376333</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:63">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>6.2</v>
@@ -3106,7 +3148,7 @@
         <v>45427</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -3136,7 +3178,7 @@
         <v>1.42</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R14">
         <v>0.97</v>
@@ -3175,7 +3217,7 @@
         <v>0.29</v>
       </c>
       <c r="AD14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE14">
         <v>4214.727419354839</v>
@@ -3205,7 +3247,7 @@
         <v>3.178</v>
       </c>
       <c r="AN14">
-        <v>12225</v>
+        <v>15200</v>
       </c>
       <c r="AO14">
         <v>95.86143333333332</v>
@@ -3235,54 +3277,57 @@
         <v>1.175698</v>
       </c>
       <c r="AX14">
+        <v>12225</v>
+      </c>
+      <c r="AY14">
         <v>9.586143333333332</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>0.834862385321101</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.9965139442231076</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>0.9909322807017545</v>
       </c>
-      <c r="BB14">
-        <v>0.9442426276648</v>
-      </c>
       <c r="BC14">
+        <v>0.8259723566049112</v>
+      </c>
+      <c r="BD14">
         <v>0.9909322807017545</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>0.9487179487179489</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>0.6955266955266957</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>0</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14">
         <v>0.9868622211763938</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:63">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3294,7 +3339,7 @@
         <v>45426</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -3324,7 +3369,7 @@
         <v>1.4</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R15">
         <v>0.97</v>
@@ -3363,7 +3408,7 @@
         <v>0.29</v>
       </c>
       <c r="AD15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE15">
         <v>5075.587500000001</v>
@@ -3393,7 +3438,7 @@
         <v>3.1735</v>
       </c>
       <c r="AN15">
-        <v>18550</v>
+        <v>22300</v>
       </c>
       <c r="AO15">
         <v>89.9769870967742</v>
@@ -3423,54 +3468,57 @@
         <v>1.008125</v>
       </c>
       <c r="AX15">
+        <v>18550</v>
+      </c>
+      <c r="AY15">
         <v>11.69700832258065</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>0.9674315321983717</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>0.978010729312763</v>
       </c>
-      <c r="BB15">
-        <v>0.9571957808517501</v>
-      </c>
       <c r="BC15">
+        <v>0.8493010289491091</v>
+      </c>
+      <c r="BD15">
         <v>0.9780107293127629</v>
       </c>
-      <c r="BD15">
+      <c r="BE15">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>0.9345794392523364</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>0.6645189003436427</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>0</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>0.9798987306888121</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:63">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>11.4</v>
@@ -3482,7 +3530,7 @@
         <v>45420</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -3512,7 +3560,7 @@
         <v>1.4</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R16">
         <v>0.97</v>
@@ -3551,7 +3599,7 @@
         <v>0.27</v>
       </c>
       <c r="AD16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE16">
         <v>4316.476315789474</v>
@@ -3581,7 +3629,7 @@
         <v>3.1315</v>
       </c>
       <c r="AN16">
-        <v>25850</v>
+        <v>32500</v>
       </c>
       <c r="AO16">
         <v>93.12258235294118</v>
@@ -3611,54 +3659,57 @@
         <v>0.994886</v>
       </c>
       <c r="AX16">
+        <v>25850</v>
+      </c>
+      <c r="AY16">
         <v>13.96838735294118</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.7152317880794703</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>0.9803108808290156</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>0.6305502595155709</v>
       </c>
-      <c r="BB16">
-        <v>0.7653704605561717</v>
-      </c>
       <c r="BC16">
+        <v>0.9622646022466376</v>
+      </c>
+      <c r="BD16">
         <v>0.6305502595155708</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>0.979591836734694</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>0.6643356643356644</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
       </c>
       <c r="BI16">
         <v>0</v>
       </c>
       <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
         <v>0.6530213242407584</v>
       </c>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:63">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>10.16</v>
@@ -3670,7 +3721,7 @@
         <v>45419</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -3700,7 +3751,7 @@
         <v>1.4</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R17">
         <v>0.97</v>
@@ -3739,7 +3790,7 @@
         <v>0.34</v>
       </c>
       <c r="AD17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE17">
         <v>4740.82874015748</v>
@@ -3769,7 +3820,7 @@
         <v>3.145</v>
       </c>
       <c r="AN17">
-        <v>13375</v>
+        <v>16975</v>
       </c>
       <c r="AO17">
         <v>96.63518679245284</v>
@@ -3799,54 +3850,57 @@
         <v>0.893941</v>
       </c>
       <c r="AX17">
+        <v>13375</v>
+      </c>
+      <c r="AY17">
         <v>11.59622241509434</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.9146341463414634</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>0.9940937615356218</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>0.9609119699736254</v>
       </c>
-      <c r="BB17">
-        <v>0.744997008428244</v>
-      </c>
       <c r="BC17">
+        <v>0.9455195677061264</v>
+      </c>
+      <c r="BD17">
         <v>0.9609119699736253</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>1</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>0.8555555555555555</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>0.6601178781925343</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>0</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>0.9648738786576168</v>
       </c>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:63">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>9.140000000000001</v>
@@ -3858,7 +3912,7 @@
         <v>45418</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <v>12</v>
@@ -3888,7 +3942,7 @@
         <v>1.46</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18">
         <v>0.97</v>
@@ -3927,7 +3981,7 @@
         <v>0.38</v>
       </c>
       <c r="AD18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE18">
         <v>5073.043763676149</v>
@@ -3957,7 +4011,7 @@
         <v>3.02</v>
       </c>
       <c r="AN18">
-        <v>11775</v>
+        <v>18675</v>
       </c>
       <c r="AO18">
         <v>88.20516153846154</v>
@@ -3987,54 +4041,57 @@
         <v>1.069233</v>
       </c>
       <c r="AX18">
+        <v>11775</v>
+      </c>
+      <c r="AY18">
         <v>10.58461938461538</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.5526315789473684</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.8387316740538697</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>0.9587517558528428</v>
       </c>
-      <c r="BB18">
-        <v>0.7351154017342122</v>
-      </c>
       <c r="BC18">
+        <v>0.83411633737695</v>
+      </c>
+      <c r="BD18">
         <v>0.9587517558528429</v>
       </c>
-      <c r="BD18">
+      <c r="BE18">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE18">
+      <c r="BF18">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF18">
+      <c r="BG18">
         <v>1</v>
       </c>
-      <c r="BG18">
+      <c r="BH18">
         <v>0.7951807228915662</v>
       </c>
-      <c r="BH18">
+      <c r="BI18">
         <v>0.4187522030313711</v>
       </c>
-      <c r="BI18">
+      <c r="BJ18">
         <v>0</v>
       </c>
-      <c r="BJ18">
+      <c r="BK18">
         <v>0.806559459568031</v>
       </c>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:63">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>23.62</v>
@@ -4046,7 +4103,7 @@
         <v>45417</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>11</v>
@@ -4076,7 +4133,7 @@
         <v>1.45</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19">
         <v>0.97</v>
@@ -4115,7 +4172,7 @@
         <v>0.32</v>
       </c>
       <c r="AD19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE19">
         <v>4237.049957662996</v>
@@ -4145,7 +4202,7 @@
         <v>3.217</v>
       </c>
       <c r="AN19">
-        <v>38375</v>
+        <v>54875</v>
       </c>
       <c r="AO19">
         <v>91.84490000000001</v>
@@ -4175,54 +4232,57 @@
         <v>1.003644</v>
       </c>
       <c r="AX19">
+        <v>38375</v>
+      </c>
+      <c r="AY19">
         <v>10.102939</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.9199999999999999</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.9581280788177339</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>0.9320360465116277</v>
       </c>
-      <c r="BB19">
-        <v>0.8435825490513651</v>
-      </c>
       <c r="BC19">
+        <v>0.7937044331154747</v>
+      </c>
+      <c r="BD19">
         <v>0.9320360465116279</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
         <v>1</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>0.8807339449541284</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <v>0.491971454058876</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <v>0</v>
       </c>
-      <c r="BJ19">
+      <c r="BK19">
         <v>0.8804431229223599</v>
       </c>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:63">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>12.45</v>
@@ -4234,7 +4294,7 @@
         <v>45449</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>15</v>
@@ -4264,7 +4324,7 @@
         <v>1.41</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20">
         <v>0.97</v>
@@ -4303,7 +4363,7 @@
         <v>0.3</v>
       </c>
       <c r="AD20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE20">
         <v>3841.609638554217</v>
@@ -4333,7 +4393,7 @@
         <v>3.217</v>
       </c>
       <c r="AN20">
-        <v>14950</v>
+        <v>23950</v>
       </c>
       <c r="AO20">
         <v>93.1791910447761</v>
@@ -4363,54 +4423,57 @@
         <v>0.574113</v>
       </c>
       <c r="AX20">
+        <v>14950</v>
+      </c>
+      <c r="AY20">
         <v>13.97687865671642</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>0.5701754385964912</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>0.9825986078886311</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>0.2744594250967388</v>
       </c>
-      <c r="BB20">
-        <v>0.6032209239284801</v>
-      </c>
       <c r="BC20">
+        <v>0.9663639550559933</v>
+      </c>
+      <c r="BD20">
         <v>0.2744594250967387</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>0.5511811023622046</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
       </c>
       <c r="BI20">
         <v>0</v>
       </c>
       <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
         <v>0.3028350699537411</v>
       </c>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:63">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>11.7</v>
@@ -4422,7 +4485,7 @@
         <v>45448</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>15</v>
@@ -4452,7 +4515,7 @@
         <v>1.39</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R21">
         <v>0.97</v>
@@ -4491,7 +4554,7 @@
         <v>0.3</v>
       </c>
       <c r="AD21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE21">
         <v>3951.075213675214</v>
@@ -4521,7 +4584,7 @@
         <v>2.98</v>
       </c>
       <c r="AN21">
-        <v>13325</v>
+        <v>23475</v>
       </c>
       <c r="AO21">
         <v>96.66666666666667</v>
@@ -4551,54 +4614,57 @@
         <v>0.819085</v>
       </c>
       <c r="AX21">
+        <v>13325</v>
+      </c>
+      <c r="AY21">
         <v>14.5</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>0.675</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>0.8648194458438286</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>0.3888888888888888</v>
       </c>
-      <c r="BB21">
-        <v>0.5284537298568905</v>
-      </c>
       <c r="BC21">
+        <v>0.9309907173276176</v>
+      </c>
+      <c r="BD21">
         <v>0.3888888888888888</v>
       </c>
-      <c r="BD21">
+      <c r="BE21">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE21">
+      <c r="BF21">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF21">
+      <c r="BG21">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG21">
+      <c r="BH21">
         <v>0.6693548387096774</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
       </c>
       <c r="BI21">
         <v>0</v>
       </c>
       <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
         <v>0.6140060216909473</v>
       </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:63">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>10.83</v>
@@ -4610,7 +4676,7 @@
         <v>45447</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22">
         <v>14</v>
@@ -4640,7 +4706,7 @@
         <v>1.44</v>
       </c>
       <c r="Q22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R22">
         <v>0.97</v>
@@ -4679,7 +4745,7 @@
         <v>0.32</v>
       </c>
       <c r="AD22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE22">
         <v>4463.469067405355</v>
@@ -4709,7 +4775,7 @@
         <v>3.313</v>
       </c>
       <c r="AN22">
-        <v>41150</v>
+        <v>46350</v>
       </c>
       <c r="AO22">
         <v>93.69640000000001</v>
@@ -4739,54 +4805,57 @@
         <v>0.449473</v>
       </c>
       <c r="AX22">
+        <v>41150</v>
+      </c>
+      <c r="AY22">
         <v>13.117496</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.441860465116279</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>0.8902714932126699</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>0.5585169230769229</v>
       </c>
-      <c r="BB22">
+      <c r="BC22">
         <v>0</v>
       </c>
-      <c r="BC22">
+      <c r="BD22">
         <v>0.5585169230769227</v>
       </c>
-      <c r="BD22">
+      <c r="BE22">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE22">
+      <c r="BF22">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF22">
+      <c r="BG22">
         <v>1</v>
       </c>
-      <c r="BG22">
+      <c r="BH22">
         <v>0.9405940594059405</v>
       </c>
-      <c r="BH22">
+      <c r="BI22">
         <v>0.05227529146295606</v>
       </c>
-      <c r="BI22">
+      <c r="BJ22">
         <v>0</v>
       </c>
-      <c r="BJ22">
+      <c r="BK22">
         <v>0.418732256207644</v>
       </c>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:63">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>9.640000000000001</v>
@@ -4798,7 +4867,7 @@
         <v>45446</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23">
         <v>16</v>
@@ -4828,7 +4897,7 @@
         <v>1.41</v>
       </c>
       <c r="Q23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R23">
         <v>0.97</v>
@@ -4867,7 +4936,7 @@
         <v>0.28</v>
       </c>
       <c r="AD23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE23">
         <v>4339.408713692946</v>
@@ -4897,7 +4966,7 @@
         <v>3.235</v>
       </c>
       <c r="AN23">
-        <v>39425</v>
+        <v>48125</v>
       </c>
       <c r="AO23">
         <v>96.875</v>
@@ -4927,54 +4996,57 @@
         <v>0.825558</v>
       </c>
       <c r="AX23">
+        <v>39425</v>
+      </c>
+      <c r="AY23">
         <v>15.5</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.8962962962962964</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>0.9555938037865749</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>0.3580508474576272</v>
       </c>
-      <c r="BB23">
-        <v>0.464135525677087</v>
-      </c>
       <c r="BC23">
+        <v>0.1252129910769769</v>
+      </c>
+      <c r="BD23">
         <v>0.3580508474576271</v>
       </c>
-      <c r="BD23">
+      <c r="BE23">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF23">
+      <c r="BG23">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG23">
+      <c r="BH23">
         <v>0.8076923076923077</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
       </c>
       <c r="BI23">
         <v>0</v>
       </c>
       <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
         <v>0.2970128811470945</v>
       </c>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:63">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24">
         <v>13.6</v>
@@ -4986,7 +5058,7 @@
         <v>45445</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -5016,7 +5088,7 @@
         <v>1.47</v>
       </c>
       <c r="Q24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R24">
         <v>0.97</v>
@@ -5055,7 +5127,7 @@
         <v>0.34</v>
       </c>
       <c r="AD24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE24">
         <v>4215.172058823529</v>
@@ -5085,7 +5157,7 @@
         <v>3.226</v>
       </c>
       <c r="AN24">
-        <v>51725</v>
+        <v>68375</v>
       </c>
       <c r="AO24">
         <v>93.53048309859155</v>
@@ -5115,54 +5187,57 @@
         <v>0.825163</v>
       </c>
       <c r="AX24">
+        <v>51725</v>
+      </c>
+      <c r="AY24">
         <v>14.02957246478873</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>0.5966386554621849</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>0.8736621684504422</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>0.2013368634886241</v>
       </c>
-      <c r="BB24">
-        <v>0.3318994876180404</v>
-      </c>
       <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
         <v>0.2013368634886241</v>
       </c>
-      <c r="BD24">
+      <c r="BE24">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF24">
+      <c r="BG24">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG24">
+      <c r="BH24">
         <v>0.9430894308943089</v>
       </c>
-      <c r="BH24">
+      <c r="BI24">
         <v>0.1255374032674119</v>
       </c>
-      <c r="BI24">
+      <c r="BJ24">
         <v>0</v>
       </c>
-      <c r="BJ24">
+      <c r="BK24">
         <v>0.4288280998228458</v>
       </c>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:63">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>12.8</v>
@@ -5174,7 +5249,7 @@
         <v>45443</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -5204,7 +5279,7 @@
         <v>1.43</v>
       </c>
       <c r="Q25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R25">
         <v>0.97</v>
@@ -5243,7 +5318,7 @@
         <v>0.36</v>
       </c>
       <c r="AD25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE25">
         <v>3769.53125</v>
@@ -5273,7 +5348,7 @@
         <v>3.265</v>
       </c>
       <c r="AN25">
-        <v>9425</v>
+        <v>17425</v>
       </c>
       <c r="AO25">
         <v>93.63986896551724</v>
@@ -5303,54 +5378,57 @@
         <v>0.80483</v>
       </c>
       <c r="AX25">
+        <v>9425</v>
+      </c>
+      <c r="AY25">
         <v>8.427588206896552</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>0.8875</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>0.9688311688311689</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>0.9111643143544508</v>
       </c>
-      <c r="BB25">
-        <v>0.5371763439341244</v>
-      </c>
       <c r="BC25">
+        <v>0.9931350443556624</v>
+      </c>
+      <c r="BD25">
         <v>0.9111643143544508</v>
       </c>
-      <c r="BD25">
+      <c r="BE25">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE25">
+      <c r="BF25">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF25">
+      <c r="BG25">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG25">
+      <c r="BH25">
         <v>0.846938775510204</v>
       </c>
-      <c r="BH25">
+      <c r="BI25">
         <v>0.4042954031650338</v>
       </c>
-      <c r="BI25">
+      <c r="BJ25">
         <v>0</v>
       </c>
-      <c r="BJ25">
+      <c r="BK25">
         <v>0.8841878204498699</v>
       </c>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:63">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>13.4</v>
@@ -5362,7 +5440,7 @@
         <v>45442</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26">
         <v>13</v>
@@ -5392,7 +5470,7 @@
         <v>1.46</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R26">
         <v>0.97</v>
@@ -5431,7 +5509,7 @@
         <v>0.36</v>
       </c>
       <c r="AD26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE26">
         <v>4483.383582089552</v>
@@ -5461,7 +5539,7 @@
         <v>3.2605</v>
       </c>
       <c r="AN26">
-        <v>17150</v>
+        <v>26950</v>
       </c>
       <c r="AO26">
         <v>92.76670322580645</v>
@@ -5491,54 +5569,57 @@
         <v>0.6982350000000001</v>
       </c>
       <c r="AX26">
+        <v>17150</v>
+      </c>
+      <c r="AY26">
         <v>12.05967141935484</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.7474747474747474</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.9453781512605042</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>0.594443890518084</v>
       </c>
-      <c r="BB26">
-        <v>0.6343679923374561</v>
-      </c>
       <c r="BC26">
+        <v>0.9968639879588597</v>
+      </c>
+      <c r="BD26">
         <v>0.5944438905180841</v>
       </c>
-      <c r="BD26">
+      <c r="BE26">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE26">
+      <c r="BF26">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF26">
+      <c r="BG26">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG26">
+      <c r="BH26">
         <v>0.7115384615384615</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
       </c>
       <c r="BI26">
         <v>0</v>
       </c>
       <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
         <v>0.6685196028222847</v>
       </c>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:63">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27">
         <v>6.4</v>
@@ -5550,7 +5631,7 @@
         <v>45441</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -5580,7 +5661,7 @@
         <v>1.43</v>
       </c>
       <c r="Q27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R27">
         <v>0.97</v>
@@ -5619,7 +5700,7 @@
         <v>0.34</v>
       </c>
       <c r="AD27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE27">
         <v>4819.7359375</v>
@@ -5649,7 +5730,7 @@
         <v>3.337</v>
       </c>
       <c r="AN27">
-        <v>7085</v>
+        <v>10585</v>
       </c>
       <c r="AO27">
         <v>94.89067704918034</v>
@@ -5679,54 +5760,57 @@
         <v>0.543126</v>
       </c>
       <c r="AX27">
+        <v>7085</v>
+      </c>
+      <c r="AY27">
         <v>11.38688124590164</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>0.7599999999999999</v>
       </c>
-      <c r="AZ27">
+      <c r="BA27">
         <v>0.823529411764706</v>
       </c>
-      <c r="BA27">
+      <c r="BB27">
         <v>0.8703490827478531</v>
       </c>
-      <c r="BB27">
-        <v>0.6737483073084163</v>
-      </c>
       <c r="BC27">
+        <v>0.9934190779308981</v>
+      </c>
+      <c r="BD27">
         <v>0.8703490827478531</v>
       </c>
-      <c r="BD27">
+      <c r="BE27">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE27">
+      <c r="BF27">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF27">
+      <c r="BG27">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG27">
+      <c r="BH27">
         <v>0.7241379310344828</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
       </c>
       <c r="BI27">
         <v>0</v>
       </c>
       <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
         <v>0.6746078080235446</v>
       </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:63">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>11.54</v>
@@ -5738,7 +5822,7 @@
         <v>45441</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28">
         <v>14</v>
@@ -5768,7 +5852,7 @@
         <v>1.43</v>
       </c>
       <c r="Q28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R28">
         <v>0.97</v>
@@ -5807,7 +5891,7 @@
         <v>0.35</v>
       </c>
       <c r="AD28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE28">
         <v>3651.844020797227</v>
@@ -5837,7 +5921,7 @@
         <v>3.1825</v>
       </c>
       <c r="AN28">
-        <v>13800</v>
+        <v>23600</v>
       </c>
       <c r="AO28">
         <v>89.6801</v>
@@ -5867,54 +5951,57 @@
         <v>0.819812</v>
       </c>
       <c r="AX28">
+        <v>13800</v>
+      </c>
+      <c r="AY28">
         <v>12.555214</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>0.6694214876033058</v>
       </c>
-      <c r="AZ28">
+      <c r="BA28">
         <v>0.9266055045871561</v>
       </c>
-      <c r="BA28">
+      <c r="BB28">
         <v>0.3392574074074075</v>
       </c>
-      <c r="BB28">
-        <v>0.5953863131476043</v>
-      </c>
       <c r="BC28">
+        <v>0.981803116646126</v>
+      </c>
+      <c r="BD28">
         <v>0.3392574074074074</v>
       </c>
-      <c r="BD28">
+      <c r="BE28">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE28">
+      <c r="BF28">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF28">
+      <c r="BG28">
         <v>1</v>
       </c>
-      <c r="BG28">
+      <c r="BH28">
         <v>0.6349206349206349</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
       </c>
       <c r="BI28">
         <v>0</v>
       </c>
       <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
         <v>0.4774275136819985</v>
       </c>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:63">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>2.5</v>
@@ -5926,7 +6013,7 @@
         <v>45429</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -5956,7 +6043,7 @@
         <v>1.42</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R29">
         <v>0.97</v>
@@ -5995,7 +6082,7 @@
         <v>0.29</v>
       </c>
       <c r="AD29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE29">
         <v>4854.483999999999</v>
@@ -6025,7 +6112,7 @@
         <v>3.059</v>
       </c>
       <c r="AN29">
-        <v>3100</v>
+        <v>5100</v>
       </c>
       <c r="AO29">
         <v>91.74579230769231</v>
@@ -6055,54 +6142,57 @@
         <v>0.969109</v>
       </c>
       <c r="AX29">
+        <v>3100</v>
+      </c>
+      <c r="AY29">
         <v>9.174579230769231</v>
       </c>
-      <c r="AY29">
+      <c r="AZ29">
         <v>0.825242718446602</v>
       </c>
-      <c r="AZ29">
+      <c r="BA29">
         <v>0.8909065115619237</v>
       </c>
-      <c r="BA29">
+      <c r="BB29">
         <v>0.8417045165843331</v>
       </c>
-      <c r="BB29">
-        <v>0.5455875169576121</v>
-      </c>
       <c r="BC29">
+        <v>0.8975794633818781</v>
+      </c>
+      <c r="BD29">
         <v>0.8417045165843331</v>
       </c>
-      <c r="BD29">
+      <c r="BE29">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE29">
+      <c r="BF29">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF29">
+      <c r="BG29">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG29">
+      <c r="BH29">
         <v>0.8316831683168318</v>
       </c>
-      <c r="BH29">
+      <c r="BI29">
         <v>0.2913155001832173</v>
       </c>
-      <c r="BI29">
+      <c r="BJ29">
         <v>0</v>
       </c>
-      <c r="BJ29">
+      <c r="BK29">
         <v>0.7660583161464873</v>
       </c>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:63">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>4.4</v>
@@ -6114,7 +6204,7 @@
         <v>45429</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -6144,7 +6234,7 @@
         <v>1.39</v>
       </c>
       <c r="Q30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R30">
         <v>0.97</v>
@@ -6183,7 +6273,7 @@
         <v>0.26</v>
       </c>
       <c r="AD30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE30">
         <v>4397.68409090909</v>
@@ -6213,7 +6303,7 @@
         <v>2.94</v>
       </c>
       <c r="AN30">
-        <v>5175</v>
+        <v>9175</v>
       </c>
       <c r="AO30">
         <v>92.81749230769231</v>
@@ -6243,54 +6333,57 @@
         <v>1.155166</v>
       </c>
       <c r="AX30">
+        <v>5175</v>
+      </c>
+      <c r="AY30">
         <v>9.281749230769231</v>
       </c>
-      <c r="AY30">
+      <c r="AZ30">
         <v>0.8495575221238937</v>
       </c>
-      <c r="AZ30">
+      <c r="BA30">
         <v>0.9139784946236559</v>
       </c>
-      <c r="BA30">
+      <c r="BB30">
         <v>0.8674531991373112</v>
       </c>
-      <c r="BB30">
-        <v>0.5206888652311122</v>
-      </c>
       <c r="BC30">
+        <v>0.9231536885981555</v>
+      </c>
+      <c r="BD30">
         <v>0.8674531991373113</v>
       </c>
-      <c r="BD30">
+      <c r="BE30">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE30">
+      <c r="BF30">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF30">
+      <c r="BG30">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG30">
+      <c r="BH30">
         <v>0.8648648648648649</v>
       </c>
-      <c r="BH30">
+      <c r="BI30">
         <v>0.04037854889589909</v>
       </c>
-      <c r="BI30">
+      <c r="BJ30">
         <v>0</v>
       </c>
-      <c r="BJ30">
+      <c r="BK30">
         <v>0.801552653968337</v>
       </c>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:63">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>7.42</v>
@@ -6302,7 +6395,7 @@
         <v>45428</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -6332,7 +6425,7 @@
         <v>1.38</v>
       </c>
       <c r="Q31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R31">
         <v>0.97</v>
@@ -6371,7 +6464,7 @@
         <v>0.22</v>
       </c>
       <c r="AD31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE31">
         <v>4009.049865229111</v>
@@ -6401,7 +6494,7 @@
         <v>3.115</v>
       </c>
       <c r="AN31">
-        <v>18925</v>
+        <v>29050</v>
       </c>
       <c r="AO31">
         <v>93.70617368421053</v>
@@ -6431,54 +6524,57 @@
         <v>1.148864</v>
       </c>
       <c r="AX31">
+        <v>18925</v>
+      </c>
+      <c r="AY31">
         <v>14.05592605263158</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>0.755</v>
       </c>
-      <c r="AZ31">
+      <c r="BA31">
         <v>0.9984732529375387</v>
       </c>
-      <c r="BA31">
+      <c r="BB31">
         <v>0.5802094896331739</v>
       </c>
-      <c r="BB31">
-        <v>0.6998149167293366</v>
-      </c>
       <c r="BC31">
+        <v>0.9257794805290764</v>
+      </c>
+      <c r="BD31">
         <v>0.580209489633174</v>
       </c>
-      <c r="BD31">
+      <c r="BE31">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE31">
+      <c r="BF31">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF31">
+      <c r="BG31">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG31">
+      <c r="BH31">
         <v>0.6483516483516483</v>
-      </c>
-      <c r="BH31">
-        <v>0</v>
       </c>
       <c r="BI31">
         <v>0</v>
       </c>
       <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
         <v>0.5767568941096215</v>
       </c>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:63">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>6.2</v>
@@ -6490,7 +6586,7 @@
         <v>45427</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -6520,7 +6616,7 @@
         <v>1.42</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R32">
         <v>0.97</v>
@@ -6559,7 +6655,7 @@
         <v>0.29</v>
       </c>
       <c r="AD32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE32">
         <v>4214.727419354839</v>
@@ -6589,7 +6685,7 @@
         <v>3.1555</v>
       </c>
       <c r="AN32">
-        <v>7925</v>
+        <v>13175</v>
       </c>
       <c r="AO32">
         <v>94.19476666666667</v>
@@ -6619,54 +6715,57 @@
         <v>1.115528</v>
       </c>
       <c r="AX32">
+        <v>7925</v>
+      </c>
+      <c r="AY32">
         <v>9.419476666666666</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>0.9357798165137616</v>
       </c>
-      <c r="AZ32">
+      <c r="BA32">
         <v>0.9686254980079684</v>
       </c>
-      <c r="BA32">
+      <c r="BB32">
         <v>0.9915238596491228</v>
       </c>
-      <c r="BB32">
-        <v>0.6121163864411894</v>
-      </c>
       <c r="BC32">
+        <v>0.9823806446230069</v>
+      </c>
+      <c r="BD32">
         <v>0.9915238596491228</v>
       </c>
-      <c r="BD32">
+      <c r="BE32">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE32">
+      <c r="BF32">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF32">
+      <c r="BG32">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG32">
+      <c r="BH32">
         <v>0.9316239316239318</v>
       </c>
-      <c r="BH32">
+      <c r="BI32">
         <v>0.7272727272727272</v>
       </c>
-      <c r="BI32">
+      <c r="BJ32">
         <v>0</v>
       </c>
-      <c r="BJ32">
+      <c r="BK32">
         <v>0.9609392252920993</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:63">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -6678,7 +6777,7 @@
         <v>45426</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33">
         <v>13</v>
@@ -6708,7 +6807,7 @@
         <v>1.4</v>
       </c>
       <c r="Q33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R33">
         <v>0.97</v>
@@ -6747,7 +6846,7 @@
         <v>0.29</v>
       </c>
       <c r="AD33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE33">
         <v>5075.587500000001</v>
@@ -6777,7 +6876,7 @@
         <v>3.226</v>
       </c>
       <c r="AN33">
-        <v>13150</v>
+        <v>20625</v>
       </c>
       <c r="AO33">
         <v>88.28343870967743</v>
@@ -6807,54 +6906,57 @@
         <v>0.992372</v>
       </c>
       <c r="AX33">
+        <v>13150</v>
+      </c>
+      <c r="AY33">
         <v>11.47684703225807</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>0.9904761904761905</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
         <v>0.8881384159881569</v>
       </c>
-      <c r="BA33">
+      <c r="BB33">
         <v>0.9596025946704068</v>
       </c>
-      <c r="BB33">
-        <v>0.6785511869649872</v>
-      </c>
       <c r="BC33">
+        <v>0.9357324539047254</v>
+      </c>
+      <c r="BD33">
         <v>0.9596025946704068</v>
       </c>
-      <c r="BD33">
+      <c r="BE33">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE33">
+      <c r="BF33">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF33">
+      <c r="BG33">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG33">
+      <c r="BH33">
         <v>0.8504672897196262</v>
       </c>
-      <c r="BH33">
+      <c r="BI33">
         <v>0.1615120274914091</v>
       </c>
-      <c r="BI33">
+      <c r="BJ33">
         <v>0</v>
       </c>
-      <c r="BJ33">
+      <c r="BK33">
         <v>0.9222377970361685</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:63">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>11.4</v>
@@ -6866,7 +6968,7 @@
         <v>45420</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34">
         <v>15</v>
@@ -6896,7 +6998,7 @@
         <v>1.4</v>
       </c>
       <c r="Q34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R34">
         <v>0.97</v>
@@ -6935,7 +7037,7 @@
         <v>0.27</v>
       </c>
       <c r="AD34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE34">
         <v>4316.476315789474</v>
@@ -6965,7 +7067,7 @@
         <v>3.0955</v>
       </c>
       <c r="AN34">
-        <v>25850</v>
+        <v>39150</v>
       </c>
       <c r="AO34">
         <v>91.57846470588235</v>
@@ -6995,54 +7097,57 @@
         <v>0.886417</v>
       </c>
       <c r="AX34">
+        <v>25850</v>
+      </c>
+      <c r="AY34">
         <v>13.73676970588235</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>0.7417218543046358</v>
       </c>
-      <c r="AZ34">
+      <c r="BA34">
         <v>0.9430051813471502</v>
       </c>
-      <c r="BA34">
+      <c r="BB34">
         <v>0.6532578719723183</v>
       </c>
-      <c r="BB34">
-        <v>0.7653704605561717</v>
-      </c>
       <c r="BC34">
+        <v>0.8408412560628966</v>
+      </c>
+      <c r="BD34">
         <v>0.6532578719723181</v>
       </c>
-      <c r="BD34">
+      <c r="BE34">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE34">
+      <c r="BF34">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF34">
+      <c r="BG34">
         <v>0.979591836734694</v>
       </c>
-      <c r="BG34">
+      <c r="BH34">
         <v>0.6433566433566433</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
       </c>
       <c r="BI34">
         <v>0</v>
       </c>
       <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
         <v>0.4271409582398946</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:63">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>10.16</v>
@@ -7054,7 +7159,7 @@
         <v>45419</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35">
         <v>12</v>
@@ -7084,7 +7189,7 @@
         <v>1.4</v>
       </c>
       <c r="Q35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R35">
         <v>0.97</v>
@@ -7123,7 +7228,7 @@
         <v>0.34</v>
       </c>
       <c r="AD35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE35">
         <v>4740.82874015748</v>
@@ -7153,7 +7258,7 @@
         <v>2.964</v>
       </c>
       <c r="AN35">
-        <v>13375</v>
+        <v>21175</v>
       </c>
       <c r="AO35">
         <v>94.65405471698114</v>
@@ -7183,54 +7288,57 @@
         <v>1.018292</v>
       </c>
       <c r="AX35">
+        <v>13375</v>
+      </c>
+      <c r="AY35">
         <v>11.35848656603774</v>
       </c>
-      <c r="AY35">
+      <c r="AZ35">
         <v>0.6829268292682925</v>
       </c>
-      <c r="AZ35">
+      <c r="BA35">
         <v>0.8829826504245109</v>
       </c>
-      <c r="BA35">
+      <c r="BB35">
         <v>0.982214465408805</v>
       </c>
-      <c r="BB35">
-        <v>0.744997008428244</v>
-      </c>
       <c r="BC35">
+        <v>0.8205374464696773</v>
+      </c>
+      <c r="BD35">
         <v>0.982214465408805</v>
       </c>
-      <c r="BD35">
+      <c r="BE35">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE35">
+      <c r="BF35">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF35">
+      <c r="BG35">
         <v>1</v>
       </c>
-      <c r="BG35">
+      <c r="BH35">
         <v>0.9111111111111112</v>
       </c>
-      <c r="BH35">
+      <c r="BI35">
         <v>0.599950884086444</v>
       </c>
-      <c r="BI35">
+      <c r="BJ35">
         <v>0</v>
       </c>
-      <c r="BJ35">
+      <c r="BK35">
         <v>0.9005794282157431</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:63">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>9.140000000000001</v>
@@ -7242,7 +7350,7 @@
         <v>45418</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36">
         <v>12</v>
@@ -7272,7 +7380,7 @@
         <v>1.46</v>
       </c>
       <c r="Q36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R36">
         <v>0.97</v>
@@ -7311,7 +7419,7 @@
         <v>0.38</v>
       </c>
       <c r="AD36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE36">
         <v>5073.043763676149</v>
@@ -7341,7 +7449,7 @@
         <v>3.02</v>
       </c>
       <c r="AN36">
-        <v>11775</v>
+        <v>18675</v>
       </c>
       <c r="AO36">
         <v>88.20516153846154</v>
@@ -7371,54 +7479,57 @@
         <v>1.069233</v>
       </c>
       <c r="AX36">
+        <v>11775</v>
+      </c>
+      <c r="AY36">
         <v>10.58461938461538</v>
       </c>
-      <c r="AY36">
+      <c r="AZ36">
         <v>0.5526315789473684</v>
       </c>
-      <c r="AZ36">
+      <c r="BA36">
         <v>0.8387316740538697</v>
       </c>
-      <c r="BA36">
+      <c r="BB36">
         <v>0.9587517558528428</v>
       </c>
-      <c r="BB36">
-        <v>0.7351154017342122</v>
-      </c>
       <c r="BC36">
+        <v>0.83411633737695</v>
+      </c>
+      <c r="BD36">
         <v>0.9587517558528429</v>
       </c>
-      <c r="BD36">
+      <c r="BE36">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE36">
+      <c r="BF36">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF36">
+      <c r="BG36">
         <v>1</v>
       </c>
-      <c r="BG36">
+      <c r="BH36">
         <v>0.7951807228915662</v>
       </c>
-      <c r="BH36">
+      <c r="BI36">
         <v>0.4187522030313711</v>
       </c>
-      <c r="BI36">
+      <c r="BJ36">
         <v>0</v>
       </c>
-      <c r="BJ36">
+      <c r="BK36">
         <v>0.806559459568031</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:63">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>23.62</v>
@@ -7430,7 +7541,7 @@
         <v>45417</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -7460,7 +7571,7 @@
         <v>1.45</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R37">
         <v>0.97</v>
@@ -7499,7 +7610,7 @@
         <v>0.32</v>
       </c>
       <c r="AD37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE37">
         <v>4237.049957662996</v>
@@ -7529,7 +7640,7 @@
         <v>3.226</v>
       </c>
       <c r="AN37">
-        <v>30175</v>
+        <v>53575</v>
       </c>
       <c r="AO37">
         <v>90.09490000000001</v>
@@ -7559,54 +7670,57 @@
         <v>0.939928</v>
       </c>
       <c r="AX37">
+        <v>30175</v>
+      </c>
+      <c r="AY37">
         <v>9.910439000000002</v>
       </c>
-      <c r="AY37">
+      <c r="AZ37">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AZ37">
+      <c r="BA37">
         <v>0.9426460239268121</v>
       </c>
-      <c r="BA37">
+      <c r="BB37">
         <v>0.9523848837209301</v>
       </c>
-      <c r="BB37">
-        <v>0.6633251704918551</v>
-      </c>
       <c r="BC37">
+        <v>0.8222818223992994</v>
+      </c>
+      <c r="BD37">
         <v>0.9523848837209301</v>
       </c>
-      <c r="BD37">
+      <c r="BE37">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE37">
+      <c r="BF37">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF37">
+      <c r="BG37">
         <v>1</v>
       </c>
-      <c r="BG37">
+      <c r="BH37">
         <v>0.8715596330275228</v>
       </c>
-      <c r="BH37">
+      <c r="BI37">
         <v>0.4611953612845675</v>
       </c>
-      <c r="BI37">
+      <c r="BJ37">
         <v>0</v>
       </c>
-      <c r="BJ37">
+      <c r="BK37">
         <v>0.8854555517298911</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:63">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38">
         <v>12.45</v>
@@ -7618,7 +7732,7 @@
         <v>45449</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38">
         <v>15</v>
@@ -7648,7 +7762,7 @@
         <v>1.41</v>
       </c>
       <c r="Q38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R38">
         <v>0.97</v>
@@ -7687,7 +7801,7 @@
         <v>0.3</v>
       </c>
       <c r="AD38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE38">
         <v>3841.609638554217</v>
@@ -7717,7 +7831,7 @@
         <v>3.271</v>
       </c>
       <c r="AN38">
-        <v>14950</v>
+        <v>28150</v>
       </c>
       <c r="AO38">
         <v>91.61202686567164</v>
@@ -7747,54 +7861,57 @@
         <v>0.613221</v>
       </c>
       <c r="AX38">
+        <v>14950</v>
+      </c>
+      <c r="AY38">
         <v>13.74180402985075</v>
       </c>
-      <c r="AY38">
+      <c r="AZ38">
         <v>0.631578947368421</v>
       </c>
-      <c r="AZ38">
+      <c r="BA38">
         <v>0.9393437189260855</v>
       </c>
-      <c r="BA38">
+      <c r="BB38">
         <v>0.3034809839690438</v>
       </c>
-      <c r="BB38">
-        <v>0.6032209239284801</v>
-      </c>
       <c r="BC38">
+        <v>0.8641692970845006</v>
+      </c>
+      <c r="BD38">
         <v>0.3034809839690437</v>
       </c>
-      <c r="BD38">
+      <c r="BE38">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE38">
+      <c r="BF38">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF38">
+      <c r="BG38">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG38">
+      <c r="BH38">
         <v>0.5590551181102361</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
       </c>
       <c r="BI38">
         <v>0</v>
       </c>
       <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
         <v>0.1988240946356289</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:63">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>11.7</v>
@@ -7806,7 +7923,7 @@
         <v>45448</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39">
         <v>15</v>
@@ -7836,7 +7953,7 @@
         <v>1.39</v>
       </c>
       <c r="Q39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R39">
         <v>0.97</v>
@@ -7875,7 +7992,7 @@
         <v>0.3</v>
       </c>
       <c r="AD39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE39">
         <v>3951.075213675214</v>
@@ -7905,7 +8022,7 @@
         <v>3.145</v>
       </c>
       <c r="AN39">
-        <v>13325</v>
+        <v>28550</v>
       </c>
       <c r="AO39">
         <v>95</v>
@@ -7935,54 +8052,57 @@
         <v>0.866672</v>
       </c>
       <c r="AX39">
+        <v>13325</v>
+      </c>
+      <c r="AY39">
         <v>14.25</v>
       </c>
-      <c r="AY39">
+      <c r="AZ39">
         <v>0.7416666666666667</v>
       </c>
-      <c r="AZ39">
+      <c r="BA39">
         <v>0.9659949622166245</v>
       </c>
-      <c r="BA39">
+      <c r="BB39">
         <v>0.4166666666666666</v>
       </c>
-      <c r="BB39">
-        <v>0.5284537298568905</v>
-      </c>
       <c r="BC39">
+        <v>0.8677407889370188</v>
+      </c>
+      <c r="BD39">
         <v>0.4166666666666666</v>
       </c>
-      <c r="BD39">
+      <c r="BE39">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE39">
+      <c r="BF39">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF39">
+      <c r="BG39">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG39">
+      <c r="BH39">
         <v>0.6612903225806451</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
       </c>
       <c r="BI39">
         <v>0</v>
       </c>
       <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
         <v>0.4785502236976285</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:63">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>10.83</v>
@@ -7994,7 +8114,7 @@
         <v>45447</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -8024,7 +8144,7 @@
         <v>1.44</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R40">
         <v>0.97</v>
@@ -8063,7 +8183,7 @@
         <v>0.32</v>
       </c>
       <c r="AD40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE40">
         <v>4463.469067405355</v>
@@ -8093,7 +8213,7 @@
         <v>3.2395</v>
       </c>
       <c r="AN40">
-        <v>41150</v>
+        <v>49150</v>
       </c>
       <c r="AO40">
         <v>92.0810153846154</v>
@@ -8123,54 +8243,57 @@
         <v>0.4972</v>
       </c>
       <c r="AX40">
+        <v>41150</v>
+      </c>
+      <c r="AY40">
         <v>12.89134215384616</v>
       </c>
-      <c r="AY40">
+      <c r="AZ40">
         <v>0.1279069767441859</v>
       </c>
-      <c r="AZ40">
+      <c r="BA40">
         <v>0.9954751131221719</v>
       </c>
-      <c r="BA40">
+      <c r="BB40">
         <v>0.58336899408284</v>
       </c>
-      <c r="BB40">
+      <c r="BC40">
         <v>0</v>
       </c>
-      <c r="BC40">
+      <c r="BD40">
         <v>0.58336899408284</v>
       </c>
-      <c r="BD40">
+      <c r="BE40">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE40">
+      <c r="BF40">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF40">
+      <c r="BG40">
         <v>1</v>
       </c>
-      <c r="BG40">
+      <c r="BH40">
         <v>0.891089108910891</v>
       </c>
-      <c r="BH40">
+      <c r="BI40">
         <v>0.9981195938322678</v>
       </c>
-      <c r="BI40">
+      <c r="BJ40">
         <v>0</v>
       </c>
-      <c r="BJ40">
+      <c r="BK40">
         <v>0.6059887728072529</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:63">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>9.640000000000001</v>
@@ -8182,7 +8305,7 @@
         <v>45446</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41">
         <v>16</v>
@@ -8212,7 +8335,7 @@
         <v>1.41</v>
       </c>
       <c r="Q41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R41">
         <v>0.97</v>
@@ -8251,7 +8374,7 @@
         <v>0.28</v>
       </c>
       <c r="AD41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE41">
         <v>4339.408713692946</v>
@@ -8281,7 +8404,7 @@
         <v>3.19</v>
       </c>
       <c r="AN41">
-        <v>39425</v>
+        <v>53200</v>
       </c>
       <c r="AO41">
         <v>95.41666666666667</v>
@@ -8311,54 +8434,57 @@
         <v>0.920017</v>
       </c>
       <c r="AX41">
+        <v>39425</v>
+      </c>
+      <c r="AY41">
         <v>15.26666666666667</v>
       </c>
-      <c r="AY41">
+      <c r="AZ41">
         <v>0.6888888888888889</v>
       </c>
-      <c r="AZ41">
+      <c r="BA41">
         <v>0.984853700516351</v>
       </c>
-      <c r="BA41">
+      <c r="BB41">
         <v>0.3827683615819208</v>
       </c>
-      <c r="BB41">
-        <v>0.464135525677087</v>
-      </c>
       <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
         <v>0.3827683615819207</v>
       </c>
-      <c r="BD41">
+      <c r="BE41">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE41">
+      <c r="BF41">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF41">
+      <c r="BG41">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG41">
+      <c r="BH41">
         <v>0.923076923076923</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
       </c>
       <c r="BI41">
         <v>0</v>
       </c>
       <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
         <v>0.4182925161123904</v>
       </c>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:63">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D42">
         <v>13.6</v>
@@ -8370,7 +8496,7 @@
         <v>45445</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42">
         <v>15</v>
@@ -8400,7 +8526,7 @@
         <v>1.47</v>
       </c>
       <c r="Q42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R42">
         <v>0.97</v>
@@ -8439,7 +8565,7 @@
         <v>0.34</v>
       </c>
       <c r="AD42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE42">
         <v>4215.172058823529</v>
@@ -8469,7 +8595,7 @@
         <v>3.226</v>
       </c>
       <c r="AN42">
-        <v>51725</v>
+        <v>68375</v>
       </c>
       <c r="AO42">
         <v>93.53048309859155</v>
@@ -8499,54 +8625,57 @@
         <v>0.825163</v>
       </c>
       <c r="AX42">
+        <v>51725</v>
+      </c>
+      <c r="AY42">
         <v>14.02957246478873</v>
       </c>
-      <c r="AY42">
+      <c r="AZ42">
         <v>0.5966386554621849</v>
       </c>
-      <c r="AZ42">
+      <c r="BA42">
         <v>0.8736621684504422</v>
       </c>
-      <c r="BA42">
+      <c r="BB42">
         <v>0.2013368634886241</v>
       </c>
-      <c r="BB42">
-        <v>0.3318994876180404</v>
-      </c>
       <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
         <v>0.2013368634886241</v>
       </c>
-      <c r="BD42">
+      <c r="BE42">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE42">
+      <c r="BF42">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF42">
+      <c r="BG42">
         <v>0.8888888888888888</v>
       </c>
-      <c r="BG42">
+      <c r="BH42">
         <v>0.9430894308943089</v>
       </c>
-      <c r="BH42">
+      <c r="BI42">
         <v>0.1255374032674119</v>
       </c>
-      <c r="BI42">
+      <c r="BJ42">
         <v>0</v>
       </c>
-      <c r="BJ42">
+      <c r="BK42">
         <v>0.4288280998228458</v>
       </c>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:63">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>12.8</v>
@@ -8558,7 +8687,7 @@
         <v>45443</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43">
         <v>9</v>
@@ -8588,7 +8717,7 @@
         <v>1.43</v>
       </c>
       <c r="Q43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R43">
         <v>0.97</v>
@@ -8627,7 +8756,7 @@
         <v>0.36</v>
       </c>
       <c r="AD43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE43">
         <v>3769.53125</v>
@@ -8657,7 +8786,7 @@
         <v>3.2395</v>
       </c>
       <c r="AN43">
-        <v>9425</v>
+        <v>22075</v>
       </c>
       <c r="AO43">
         <v>91.82952413793103</v>
@@ -8687,54 +8816,57 @@
         <v>0.982471</v>
       </c>
       <c r="AX43">
+        <v>9425</v>
+      </c>
+      <c r="AY43">
         <v>8.264657172413793</v>
       </c>
-      <c r="AY43">
+      <c r="AZ43">
         <v>0.8125000000000001</v>
       </c>
-      <c r="AZ43">
+      <c r="BA43">
         <v>0.9983766233766235</v>
       </c>
-      <c r="BA43">
+      <c r="BB43">
         <v>0.9322148356054532</v>
       </c>
-      <c r="BB43">
-        <v>0.5371763439341244</v>
-      </c>
       <c r="BC43">
+        <v>0.7418389610243187</v>
+      </c>
+      <c r="BD43">
         <v>0.9322148356054532</v>
       </c>
-      <c r="BD43">
+      <c r="BE43">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE43">
+      <c r="BF43">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF43">
+      <c r="BG43">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG43">
+      <c r="BH43">
         <v>0.9693877551020408</v>
       </c>
-      <c r="BH43">
+      <c r="BI43">
         <v>0.8421250941974378</v>
       </c>
-      <c r="BI43">
+      <c r="BJ43">
         <v>0</v>
       </c>
-      <c r="BJ43">
+      <c r="BK43">
         <v>0.9371124776707523</v>
       </c>
     </row>
-    <row r="44" spans="1:62">
+    <row r="44" spans="1:63">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <v>13.4</v>
@@ -8746,7 +8878,7 @@
         <v>45442</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44">
         <v>13</v>
@@ -8776,7 +8908,7 @@
         <v>1.46</v>
       </c>
       <c r="Q44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R44">
         <v>0.97</v>
@@ -8815,7 +8947,7 @@
         <v>0.36</v>
       </c>
       <c r="AD44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE44">
         <v>4483.383582089552</v>
@@ -8845,7 +8977,7 @@
         <v>3.346</v>
       </c>
       <c r="AN44">
-        <v>17150</v>
+        <v>34475</v>
       </c>
       <c r="AO44">
         <v>91.07315483870968</v>
@@ -8875,54 +9007,57 @@
         <v>0.885043</v>
       </c>
       <c r="AX44">
+        <v>17150</v>
+      </c>
+      <c r="AY44">
         <v>11.83951012903226</v>
       </c>
-      <c r="AY44">
+      <c r="AZ44">
         <v>0.8484848484848484</v>
       </c>
-      <c r="AZ44">
+      <c r="BA44">
         <v>0.9096638655462186</v>
       </c>
-      <c r="BA44">
+      <c r="BB44">
         <v>0.6201037145650048</v>
       </c>
-      <c r="BB44">
-        <v>0.6343679923374561</v>
-      </c>
       <c r="BC44">
+        <v>0.7247908725461341</v>
+      </c>
+      <c r="BD44">
         <v>0.6201037145650048</v>
       </c>
-      <c r="BD44">
+      <c r="BE44">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE44">
+      <c r="BF44">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF44">
+      <c r="BG44">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG44">
+      <c r="BH44">
         <v>0.7019230769230769</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
       </c>
       <c r="BI44">
         <v>0</v>
       </c>
       <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
         <v>0.4923939232711613</v>
       </c>
     </row>
-    <row r="45" spans="1:62">
+    <row r="45" spans="1:63">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45">
         <v>6.4</v>
@@ -8934,7 +9069,7 @@
         <v>45441</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45">
         <v>12</v>
@@ -8964,7 +9099,7 @@
         <v>1.43</v>
       </c>
       <c r="Q45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R45">
         <v>0.97</v>
@@ -9003,7 +9138,7 @@
         <v>0.34</v>
       </c>
       <c r="AD45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE45">
         <v>4819.7359375</v>
@@ -9033,7 +9168,7 @@
         <v>3.355</v>
       </c>
       <c r="AN45">
-        <v>7085</v>
+        <v>13910</v>
       </c>
       <c r="AO45">
         <v>93.16936557377051</v>
@@ -9063,54 +9198,57 @@
         <v>0.7665</v>
       </c>
       <c r="AX45">
+        <v>7085</v>
+      </c>
+      <c r="AY45">
         <v>11.18032386885246</v>
       </c>
-      <c r="AY45">
+      <c r="AZ45">
         <v>0.9866666666666667</v>
       </c>
-      <c r="AZ45">
+      <c r="BA45">
         <v>0.7808535178777394</v>
       </c>
-      <c r="BA45">
+      <c r="BB45">
         <v>0.8908408860265415</v>
       </c>
-      <c r="BB45">
-        <v>0.6737483073084163</v>
-      </c>
       <c r="BC45">
+        <v>0.6772280939082468</v>
+      </c>
+      <c r="BD45">
         <v>0.8908408860265417</v>
       </c>
-      <c r="BD45">
+      <c r="BE45">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE45">
+      <c r="BF45">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF45">
+      <c r="BG45">
         <v>0.9803921568627452</v>
       </c>
-      <c r="BG45">
+      <c r="BH45">
         <v>0.793103448275862</v>
       </c>
-      <c r="BH45">
+      <c r="BI45">
         <v>0.01938174681059845</v>
       </c>
-      <c r="BI45">
+      <c r="BJ45">
         <v>0</v>
       </c>
-      <c r="BJ45">
+      <c r="BK45">
         <v>0.6514445261229878</v>
       </c>
     </row>
-    <row r="46" spans="1:62">
+    <row r="46" spans="1:63">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>11.54</v>
@@ -9122,7 +9260,7 @@
         <v>45441</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46">
         <v>14</v>
@@ -9152,7 +9290,7 @@
         <v>1.43</v>
       </c>
       <c r="Q46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R46">
         <v>0.97</v>
@@ -9191,7 +9329,7 @@
         <v>0.35</v>
       </c>
       <c r="AD46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE46">
         <v>3651.844020797227</v>
@@ -9221,7 +9359,7 @@
         <v>3.196</v>
       </c>
       <c r="AN46">
-        <v>13800</v>
+        <v>28500</v>
       </c>
       <c r="AO46">
         <v>87.9301</v>
@@ -9251,54 +9389,57 @@
         <v>0.919799</v>
       </c>
       <c r="AX46">
+        <v>13800</v>
+      </c>
+      <c r="AY46">
         <v>12.310214</v>
       </c>
-      <c r="AY46">
+      <c r="AZ46">
         <v>0.8099173553719008</v>
       </c>
-      <c r="AZ46">
+      <c r="BA46">
         <v>0.9403669724770642</v>
       </c>
-      <c r="BA46">
+      <c r="BB46">
         <v>0.3716648148148148</v>
       </c>
-      <c r="BB46">
-        <v>0.5953863131476043</v>
-      </c>
       <c r="BC46">
+        <v>0.770397831542991</v>
+      </c>
+      <c r="BD46">
         <v>0.3716648148148147</v>
       </c>
-      <c r="BD46">
+      <c r="BE46">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE46">
+      <c r="BF46">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF46">
+      <c r="BG46">
         <v>1</v>
       </c>
-      <c r="BG46">
+      <c r="BH46">
         <v>0.6984126984126984</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
       </c>
       <c r="BI46">
         <v>0</v>
       </c>
       <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
         <v>0.4849674890768204</v>
       </c>
     </row>
-    <row r="47" spans="1:62">
+    <row r="47" spans="1:63">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47">
         <v>2.5</v>
@@ -9310,7 +9451,7 @@
         <v>45429</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -9340,7 +9481,7 @@
         <v>1.42</v>
       </c>
       <c r="Q47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R47">
         <v>0.97</v>
@@ -9379,7 +9520,7 @@
         <v>0.29</v>
       </c>
       <c r="AD47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE47">
         <v>4854.483999999999</v>
@@ -9409,7 +9550,7 @@
         <v>3.115</v>
       </c>
       <c r="AN47">
-        <v>3100</v>
+        <v>5975</v>
       </c>
       <c r="AO47">
         <v>90.1304076923077</v>
@@ -9439,54 +9580,57 @@
         <v>1.055003</v>
       </c>
       <c r="AX47">
+        <v>3100</v>
+      </c>
+      <c r="AY47">
         <v>9.01304076923077</v>
       </c>
-      <c r="AY47">
+      <c r="AZ47">
         <v>0.6407766990291264</v>
       </c>
-      <c r="AZ47">
+      <c r="BA47">
         <v>0.9198113207547169</v>
       </c>
-      <c r="BA47">
+      <c r="BB47">
         <v>0.8268844742413549</v>
       </c>
-      <c r="BB47">
-        <v>0.5455875169576121</v>
-      </c>
       <c r="BC47">
+        <v>0.9484240600575056</v>
+      </c>
+      <c r="BD47">
         <v>0.826884474241355</v>
       </c>
-      <c r="BD47">
+      <c r="BE47">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE47">
+      <c r="BF47">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF47">
+      <c r="BG47">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG47">
+      <c r="BH47">
         <v>0.7623762376237624</v>
       </c>
-      <c r="BH47">
+      <c r="BI47">
         <v>0.1927445950897764</v>
       </c>
-      <c r="BI47">
+      <c r="BJ47">
         <v>0</v>
       </c>
-      <c r="BJ47">
+      <c r="BK47">
         <v>0.7769867785876073</v>
       </c>
     </row>
-    <row r="48" spans="1:62">
+    <row r="48" spans="1:63">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>4.4</v>
@@ -9498,7 +9642,7 @@
         <v>45429</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -9528,7 +9672,7 @@
         <v>1.39</v>
       </c>
       <c r="Q48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R48">
         <v>0.97</v>
@@ -9567,7 +9711,7 @@
         <v>0.26</v>
       </c>
       <c r="AD48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE48">
         <v>4397.68409090909</v>
@@ -9597,7 +9741,7 @@
         <v>2.932</v>
       </c>
       <c r="AN48">
-        <v>5175</v>
+        <v>10925</v>
       </c>
       <c r="AO48">
         <v>91.20210769230769</v>
@@ -9627,54 +9771,57 @@
         <v>1.280833</v>
       </c>
       <c r="AX48">
+        <v>5175</v>
+      </c>
+      <c r="AY48">
         <v>9.120210769230768</v>
       </c>
-      <c r="AY48">
+      <c r="AZ48">
         <v>0.5929203539823007</v>
       </c>
-      <c r="AZ48">
+      <c r="BA48">
         <v>0.9103302611367127</v>
       </c>
-      <c r="BA48">
+      <c r="BB48">
         <v>0.8523561466570813</v>
       </c>
-      <c r="BB48">
-        <v>0.5206888652311122</v>
-      </c>
       <c r="BC48">
+        <v>0.9007679511787631</v>
+      </c>
+      <c r="BD48">
         <v>0.8523561466570811</v>
       </c>
-      <c r="BD48">
+      <c r="BE48">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE48">
+      <c r="BF48">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BF48">
+      <c r="BG48">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG48">
+      <c r="BH48">
         <v>0.738738738738739</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
       </c>
       <c r="BI48">
         <v>0</v>
       </c>
       <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
         <v>0.7844587351531106</v>
       </c>
     </row>
-    <row r="49" spans="1:62">
+    <row r="49" spans="1:63">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>7.42</v>
@@ -9686,7 +9833,7 @@
         <v>45428</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>15</v>
@@ -9716,7 +9863,7 @@
         <v>1.38</v>
       </c>
       <c r="Q49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R49">
         <v>0.97</v>
@@ -9755,7 +9902,7 @@
         <v>0.22</v>
       </c>
       <c r="AD49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE49">
         <v>4009.049865229111</v>
@@ -9785,7 +9932,7 @@
         <v>3.1315</v>
       </c>
       <c r="AN49">
-        <v>18925</v>
+        <v>33775</v>
       </c>
       <c r="AO49">
         <v>92.32459473684212</v>
@@ -9815,54 +9962,57 @@
         <v>1.249465</v>
       </c>
       <c r="AX49">
+        <v>18925</v>
+      </c>
+      <c r="AY49">
         <v>13.84868921052632</v>
       </c>
-      <c r="AY49">
+      <c r="AZ49">
         <v>0.875</v>
       </c>
-      <c r="AZ49">
+      <c r="BA49">
         <v>0.9795918367346939</v>
       </c>
-      <c r="BA49">
+      <c r="BB49">
         <v>0.6011425039872407</v>
       </c>
-      <c r="BB49">
-        <v>0.6998149167293366</v>
-      </c>
       <c r="BC49">
+        <v>0.7510568659163359</v>
+      </c>
+      <c r="BD49">
         <v>0.6011425039872408</v>
       </c>
-      <c r="BD49">
+      <c r="BE49">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE49">
+      <c r="BF49">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF49">
+      <c r="BG49">
         <v>0.847457627118644</v>
       </c>
-      <c r="BG49">
+      <c r="BH49">
         <v>0.7032967032967032</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
       </c>
       <c r="BI49">
         <v>0</v>
       </c>
       <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
         <v>0.5669353509357863</v>
       </c>
     </row>
-    <row r="50" spans="1:62">
+    <row r="50" spans="1:63">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>6.2</v>
@@ -9874,7 +10024,7 @@
         <v>45427</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50">
         <v>10</v>
@@ -9904,7 +10054,7 @@
         <v>1.42</v>
       </c>
       <c r="Q50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R50">
         <v>0.97</v>
@@ -9943,7 +10093,7 @@
         <v>0.29</v>
       </c>
       <c r="AD50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE50">
         <v>4214.727419354839</v>
@@ -9973,7 +10123,7 @@
         <v>3.196</v>
       </c>
       <c r="AN50">
-        <v>7925</v>
+        <v>15800</v>
       </c>
       <c r="AO50">
         <v>92.52809999999999</v>
@@ -10003,54 +10153,57 @@
         <v>1.199944</v>
       </c>
       <c r="AX50">
+        <v>7925</v>
+      </c>
+      <c r="AY50">
         <v>9.252809999999998</v>
       </c>
-      <c r="AY50">
+      <c r="AZ50">
         <v>0.7706422018348624</v>
       </c>
-      <c r="AZ50">
+      <c r="BA50">
         <v>0.9778386454183267</v>
       </c>
-      <c r="BA50">
+      <c r="BB50">
         <v>0.97398</v>
       </c>
-      <c r="BB50">
-        <v>0.6121163864411894</v>
-      </c>
       <c r="BC50">
+        <v>0.7796291601551051</v>
+      </c>
+      <c r="BD50">
         <v>0.9739799999999998</v>
       </c>
-      <c r="BD50">
+      <c r="BE50">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE50">
+      <c r="BF50">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF50">
+      <c r="BG50">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG50">
+      <c r="BH50">
         <v>0.9829059829059829</v>
       </c>
-      <c r="BH50">
+      <c r="BI50">
         <v>0.8773448773448773</v>
       </c>
-      <c r="BI50">
+      <c r="BJ50">
         <v>0</v>
       </c>
-      <c r="BJ50">
+      <c r="BK50">
         <v>0.996107824065407</v>
       </c>
     </row>
-    <row r="51" spans="1:62">
+    <row r="51" spans="1:63">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -10062,7 +10215,7 @@
         <v>45426</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51">
         <v>13</v>
@@ -10092,7 +10245,7 @@
         <v>1.4</v>
       </c>
       <c r="Q51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R51">
         <v>0.97</v>
@@ -10131,7 +10284,7 @@
         <v>0.29</v>
       </c>
       <c r="AD51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE51">
         <v>5075.587500000001</v>
@@ -10161,7 +10314,7 @@
         <v>3.148</v>
       </c>
       <c r="AN51">
-        <v>13150</v>
+        <v>24650</v>
       </c>
       <c r="AO51">
         <v>86.58989032258064</v>
@@ -10191,54 +10344,57 @@
         <v>1.11689</v>
       </c>
       <c r="AX51">
+        <v>13150</v>
+      </c>
+      <c r="AY51">
         <v>11.25668574193548</v>
       </c>
-      <c r="AY51">
+      <c r="AZ51">
         <v>0.6571428571428573</v>
       </c>
-      <c r="AZ51">
+      <c r="BA51">
         <v>0.9992598075499629</v>
       </c>
-      <c r="BA51">
+      <c r="BB51">
         <v>0.9411944600280505</v>
       </c>
-      <c r="BB51">
-        <v>0.6785511869649872</v>
-      </c>
       <c r="BC51">
+        <v>0.7280390297576476</v>
+      </c>
+      <c r="BD51">
         <v>0.9411944600280503</v>
       </c>
-      <c r="BD51">
+      <c r="BE51">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE51">
+      <c r="BF51">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF51">
+      <c r="BG51">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BG51">
+      <c r="BH51">
         <v>0.94392523364486</v>
       </c>
-      <c r="BH51">
+      <c r="BI51">
         <v>0.765893470790378</v>
       </c>
-      <c r="BI51">
+      <c r="BJ51">
         <v>0</v>
       </c>
-      <c r="BJ51">
+      <c r="BK51">
         <v>0.9500327828726642</v>
       </c>
     </row>
-    <row r="52" spans="1:62">
+    <row r="52" spans="1:63">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>11.4</v>
@@ -10250,7 +10406,7 @@
         <v>45420</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -10280,7 +10436,7 @@
         <v>1.4</v>
       </c>
       <c r="Q52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R52">
         <v>0.97</v>
@@ -10319,7 +10475,7 @@
         <v>0.27</v>
       </c>
       <c r="AD52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE52">
         <v>4316.476315789474</v>
@@ -10349,7 +10505,7 @@
         <v>2.964</v>
       </c>
       <c r="AN52">
-        <v>19775</v>
+        <v>37625</v>
       </c>
       <c r="AO52">
         <v>90.03434705882354</v>
@@ -10379,54 +10535,57 @@
         <v>0.868003</v>
       </c>
       <c r="AX52">
+        <v>19775</v>
+      </c>
+      <c r="AY52">
         <v>13.50515205882353</v>
       </c>
-      <c r="AY52">
+      <c r="AZ52">
         <v>0.7682119205298013</v>
       </c>
-      <c r="AZ52">
+      <c r="BA52">
         <v>0.8860103626943006</v>
       </c>
-      <c r="BA52">
+      <c r="BB52">
         <v>0.6759654844290656</v>
       </c>
-      <c r="BB52">
-        <v>0.5855010002900695</v>
-      </c>
       <c r="BC52">
+        <v>0.8859936720144695</v>
+      </c>
+      <c r="BD52">
         <v>0.6759654844290657</v>
       </c>
-      <c r="BD52">
+      <c r="BE52">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE52">
+      <c r="BF52">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF52">
+      <c r="BG52">
         <v>0.979591836734694</v>
       </c>
-      <c r="BG52">
+      <c r="BH52">
         <v>0.6783216783216783</v>
-      </c>
-      <c r="BH52">
-        <v>0</v>
       </c>
       <c r="BI52">
         <v>0</v>
       </c>
       <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
         <v>0.5471212002094525</v>
       </c>
     </row>
-    <row r="53" spans="1:62">
+    <row r="53" spans="1:63">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>10.16</v>
@@ -10438,7 +10597,7 @@
         <v>45419</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53">
         <v>12</v>
@@ -10468,7 +10627,7 @@
         <v>1.4</v>
       </c>
       <c r="Q53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R53">
         <v>0.97</v>
@@ -10507,7 +10666,7 @@
         <v>0.34</v>
       </c>
       <c r="AD53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE53">
         <v>4740.82874015748</v>
@@ -10537,7 +10696,7 @@
         <v>2.996</v>
       </c>
       <c r="AN53">
-        <v>9275</v>
+        <v>19275</v>
       </c>
       <c r="AO53">
         <v>92.67292264150944</v>
@@ -10567,54 +10726,57 @@
         <v>0.957255</v>
       </c>
       <c r="AX53">
+        <v>9275</v>
+      </c>
+      <c r="AY53">
         <v>11.12075071698113</v>
       </c>
-      <c r="AY53">
+      <c r="AZ53">
         <v>0.8048780487804877</v>
       </c>
-      <c r="AZ53">
+      <c r="BA53">
         <v>0.9007013658176449</v>
       </c>
-      <c r="BA53">
+      <c r="BB53">
         <v>0.9964830391560155</v>
       </c>
-      <c r="BB53">
-        <v>0.5166240936951001</v>
-      </c>
       <c r="BC53">
+        <v>0.9263687971996708</v>
+      </c>
+      <c r="BD53">
         <v>0.9964830391560155</v>
       </c>
-      <c r="BD53">
+      <c r="BE53">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE53">
+      <c r="BF53">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF53">
+      <c r="BG53">
         <v>1</v>
       </c>
-      <c r="BG53">
+      <c r="BH53">
         <v>0.9555555555555556</v>
       </c>
-      <c r="BH53">
+      <c r="BI53">
         <v>0.7072691552062869</v>
       </c>
-      <c r="BI53">
+      <c r="BJ53">
         <v>0</v>
       </c>
-      <c r="BJ53">
+      <c r="BK53">
         <v>0.8994236650032832</v>
       </c>
     </row>
-    <row r="54" spans="1:62">
+    <row r="54" spans="1:63">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D54">
         <v>9.140000000000001</v>
@@ -10626,7 +10788,7 @@
         <v>45418</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H54">
         <v>12</v>
@@ -10656,7 +10818,7 @@
         <v>1.46</v>
       </c>
       <c r="Q54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R54">
         <v>0.97</v>
@@ -10695,7 +10857,7 @@
         <v>0.38</v>
       </c>
       <c r="AD54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE54">
         <v>5073.043763676149</v>
@@ -10725,7 +10887,7 @@
         <v>2.964</v>
       </c>
       <c r="AN54">
-        <v>8075</v>
+        <v>16625</v>
       </c>
       <c r="AO54">
         <v>86.18593076923078</v>
@@ -10755,54 +10917,57 @@
         <v>0.957674</v>
       </c>
       <c r="AX54">
+        <v>8075</v>
+      </c>
+      <c r="AY54">
         <v>10.34231169230769</v>
       </c>
-      <c r="AY54">
+      <c r="AZ54">
         <v>0.6447368421052632</v>
       </c>
-      <c r="AZ54">
+      <c r="BA54">
         <v>0.8165700647800886</v>
       </c>
-      <c r="BA54">
+      <c r="BB54">
         <v>0.9368035953177258</v>
       </c>
-      <c r="BB54">
-        <v>0.5041237256054152</v>
-      </c>
       <c r="BC54">
+        <v>0.9620982119888511</v>
+      </c>
+      <c r="BD54">
         <v>0.9368035953177258</v>
       </c>
-      <c r="BD54">
+      <c r="BE54">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE54">
+      <c r="BF54">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF54">
+      <c r="BG54">
         <v>1</v>
       </c>
-      <c r="BG54">
+      <c r="BH54">
         <v>0.7951807228915662</v>
       </c>
-      <c r="BH54">
+      <c r="BI54">
         <v>0.3716954529432498</v>
       </c>
-      <c r="BI54">
+      <c r="BJ54">
         <v>0</v>
       </c>
-      <c r="BJ54">
+      <c r="BK54">
         <v>0.7672716933619237</v>
       </c>
     </row>
-    <row r="55" spans="1:62">
+    <row r="55" spans="1:63">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55">
         <v>23.62</v>
@@ -10814,7 +10979,7 @@
         <v>45417</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55">
         <v>11</v>
@@ -10844,7 +11009,7 @@
         <v>1.45</v>
       </c>
       <c r="Q55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R55">
         <v>0.97</v>
@@ -10883,7 +11048,7 @@
         <v>0.32</v>
       </c>
       <c r="AD55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE55">
         <v>4237.049957662996</v>
@@ -10913,7 +11078,7 @@
         <v>3.226</v>
       </c>
       <c r="AN55">
-        <v>30175</v>
+        <v>53575</v>
       </c>
       <c r="AO55">
         <v>90.09490000000001</v>
@@ -10943,42 +11108,45 @@
         <v>0.939928</v>
       </c>
       <c r="AX55">
+        <v>30175</v>
+      </c>
+      <c r="AY55">
         <v>9.910439000000002</v>
       </c>
-      <c r="AY55">
+      <c r="AZ55">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AZ55">
+      <c r="BA55">
         <v>0.9426460239268121</v>
       </c>
-      <c r="BA55">
+      <c r="BB55">
         <v>0.9523848837209301</v>
       </c>
-      <c r="BB55">
-        <v>0.6633251704918551</v>
-      </c>
       <c r="BC55">
+        <v>0.8222818223992994</v>
+      </c>
+      <c r="BD55">
         <v>0.9523848837209301</v>
       </c>
-      <c r="BD55">
+      <c r="BE55">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BE55">
+      <c r="BF55">
         <v>0.8727272727272726</v>
       </c>
-      <c r="BF55">
+      <c r="BG55">
         <v>1</v>
       </c>
-      <c r="BG55">
+      <c r="BH55">
         <v>0.8715596330275228</v>
       </c>
-      <c r="BH55">
+      <c r="BI55">
         <v>0.4611953612845675</v>
       </c>
-      <c r="BI55">
+      <c r="BJ55">
         <v>0</v>
       </c>
-      <c r="BJ55">
+      <c r="BK55">
         <v>0.8854555517298911</v>
       </c>
     </row>
